--- a/Testdata/ExcludedStudies_LiveSLR_Data.xlsx
+++ b/Testdata/ExcludedStudies_LiveSLR_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69436839-F518-4020-BA6C-C0FAFF52ED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DB9ED-E799-4A2E-B4E5-203364BBD6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
   <si>
     <t>Population</t>
   </si>
@@ -335,16 +335,25 @@
   </si>
   <si>
     <t>intervention_section14_checkbox</t>
+  </si>
+  <si>
+    <t>ExpectedPrismaCount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,8 +379,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,13 +681,14 @@
     <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -699,20 +713,23 @@
       <c r="H1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -737,20 +754,23 @@
       <c r="H2" t="s">
         <v>89</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
         <v>95</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -763,17 +783,20 @@
       <c r="H3" t="s">
         <v>90</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>96</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -786,17 +809,20 @@
       <c r="H4" t="s">
         <v>91</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>97</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -809,366 +835,490 @@
       <c r="H5" t="s">
         <v>92</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="2">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
         <v>63</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
       <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H13" t="s">
         <v>91</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L13" t="s">
         <v>31</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K11" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D18" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E18" t="s">
         <v>58</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G18" t="s">
         <v>77</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H18" t="s">
         <v>93</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
         <v>95</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G19" t="s">
         <v>73</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="L19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>84</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F20" t="s">
         <v>80</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G20" t="s">
         <v>81</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H20" t="s">
         <v>90</v>
       </c>
-      <c r="K14" t="s">
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H21" t="s">
         <v>91</v>
       </c>
-      <c r="K15" t="s">
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K16" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>85</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E26" t="s">
         <v>60</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F26" t="s">
         <v>72</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G26" t="s">
         <v>73</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H26" t="s">
         <v>89</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I26">
+        <v>102</v>
+      </c>
+      <c r="J26" t="s">
         <v>95</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>85</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F27" t="s">
         <v>98</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G27" t="s">
         <v>99</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H27" t="s">
         <v>90</v>
       </c>
-      <c r="K18" t="s">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G28" t="s">
         <v>10</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H28" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
+      <c r="I28">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G29" t="s">
         <v>14</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H29" t="s">
         <v>92</v>
       </c>
-      <c r="K20" t="s">
+      <c r="I29">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K21" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30">
+        <v>37</v>
+      </c>
+      <c r="L30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K22" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K23" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32">
+        <v>13</v>
+      </c>
+      <c r="L32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K24" t="s">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K25" t="s">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K26" t="s">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K27" t="s">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" t="s">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K29" t="s">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K30" t="s">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K31" t="s">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Testdata/ExcludedStudies_LiveSLR_Data.xlsx
+++ b/Testdata/ExcludedStudies_LiveSLR_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DB9ED-E799-4A2E-B4E5-203364BBD6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AAF231-4F03-4F98-8F5B-52CFAD447569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
   <si>
     <t>Population</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Validation study</t>
   </si>
   <si>
-    <t>Report-</t>
-  </si>
-  <si>
     <t>Economic</t>
   </si>
   <si>
@@ -226,21 +223,12 @@
     <t>NewImportLogic_1 - Test_Automation_1_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Economic-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_1 - Test_Automation_1-Economic-</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Quality of Life-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_1 - Test_Automation_1-Quality of Life-</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_1 - Test_Automation_1-Real-world Evidence-</t>
   </si>
   <si>
@@ -325,9 +313,6 @@
     <t>\Testdata\Templates\ExcludedStudies_LiveSLR\Expected_Test_data.xlsx</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
   </si>
   <si>
@@ -338,6 +323,30 @@
   </si>
   <si>
     <t>ExpectedPrismaCount</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Clinical-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Economic-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Quality of Life-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Economic-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Real-world Evidence-2023_</t>
   </si>
 </sst>
 </file>
@@ -667,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,7 +699,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -705,19 +714,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -731,37 +740,37 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2">
         <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -772,16 +781,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -798,7 +807,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -807,13 +816,13 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -824,7 +833,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -833,13 +842,13 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2">
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -850,13 +859,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -867,53 +876,64 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2">
         <v>2</v>
       </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2">
         <v>4</v>
       </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
       <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
         <v>25</v>
@@ -924,22 +944,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -950,22 +970,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
@@ -976,7 +996,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -985,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
         <v>31</v>
@@ -1002,7 +1022,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1013,7 +1033,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1021,7 +1041,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1029,34 +1049,34 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
       <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I18">
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s">
         <v>34</v>
@@ -1064,16 +1084,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I19">
         <v>12</v>
@@ -1084,16 +1104,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -1104,7 +1124,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1113,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -1124,7 +1144,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1135,7 +1155,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1143,7 +1163,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -1151,34 +1171,34 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
         <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" t="s">
-        <v>89</v>
       </c>
       <c r="I26">
         <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L26" t="s">
         <v>39</v>
@@ -1186,16 +1206,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1206,7 +1226,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1215,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I28">
         <v>18</v>
@@ -1226,7 +1246,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1235,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I29">
         <v>33</v>
@@ -1246,7 +1266,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I30">
         <v>37</v>
@@ -1257,7 +1277,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1268,7 +1288,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I32">
         <v>13</v>

--- a/Testdata/ExcludedStudies_LiveSLR_Data.xlsx
+++ b/Testdata/ExcludedStudies_LiveSLR_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AAF231-4F03-4F98-8F5B-52CFAD447569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19D6E2-EDED-47E7-9117-5CFADBA2E4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,16 +337,16 @@
     <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Real-world Evidence-</t>
   </si>
   <si>
-    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Economic-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Quality of Life-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Real-world Evidence-2023_</t>
+    <t>StandardExcelReport-NewImportLogic_1-Test_Automation_1-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1-Test_Automation_1-Economic-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1-Test_Automation_1-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1-Test_Automation_1-Real-world Evidence-2023_</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testdata/ExcludedStudies_LiveSLR_Data.xlsx
+++ b/Testdata/ExcludedStudies_LiveSLR_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19D6E2-EDED-47E7-9117-5CFADBA2E4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855C92D2-5D58-419A-9F16-88AB662C7682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,24 +241,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>lot_section1</t>
-  </si>
-  <si>
-    <t>lot_section1_checkbox</t>
-  </si>
-  <si>
     <t>intervention_section6</t>
   </si>
   <si>
     <t>intervention_section6_checkbox</t>
   </si>
   <si>
-    <t>sub_pop_section2</t>
-  </si>
-  <si>
-    <t>sub_pop_section2_checkbox</t>
-  </si>
-  <si>
     <t>intervention_section4</t>
   </si>
   <si>
@@ -292,9 +280,6 @@
     <t>sectionname</t>
   </si>
   <si>
-    <t>lot_section</t>
-  </si>
-  <si>
     <t>intervention_section</t>
   </si>
   <si>
@@ -304,9 +289,6 @@
     <t>reported_variable_section</t>
   </si>
   <si>
-    <t>sub_pop_section</t>
-  </si>
-  <si>
     <t>ExpectedSourceTemplateFile</t>
   </si>
   <si>
@@ -347,6 +329,24 @@
   </si>
   <si>
     <t>StandardExcelReport-NewImportLogic_1-Test_Automation_1-Real-world Evidence-2023_</t>
+  </si>
+  <si>
+    <t>pop_filter2_section1</t>
+  </si>
+  <si>
+    <t>pop_filter2_section1_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter2_section</t>
+  </si>
+  <si>
+    <t>pop_filter1_section2</t>
+  </si>
+  <si>
+    <t>pop_filter1_section2_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter1_section</t>
   </si>
 </sst>
 </file>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,19 +714,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>90</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -755,22 +755,22 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2">
         <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -781,22 +781,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -816,13 +816,13 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -842,13 +842,13 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2">
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -859,13 +859,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2">
         <v>2</v>
@@ -887,23 +887,23 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -918,19 +918,19 @@
         <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I10">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
         <v>63</v>
@@ -944,22 +944,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -970,22 +970,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I12">
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -1064,19 +1064,19 @@
         <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I18">
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L18" t="s">
         <v>34</v>
@@ -1084,16 +1084,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <v>12</v>
@@ -1104,16 +1104,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1133,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
@@ -1186,19 +1186,19 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s">
         <v>39</v>
@@ -1206,16 +1206,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
         <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" t="s">
-        <v>86</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I28">
         <v>18</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1255,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>33</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I30">
         <v>37</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I32">
         <v>13</v>
